--- a/data/pca/factorExposure/factorExposure_2015-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008371973377219628</v>
+        <v>0.008115044395818415</v>
       </c>
       <c r="C2">
-        <v>-0.0380999956014778</v>
+        <v>0.05281162761447349</v>
       </c>
       <c r="D2">
-        <v>-0.112804004945149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03363714912101197</v>
+      </c>
+      <c r="E2">
+        <v>0.1116920037981009</v>
+      </c>
+      <c r="F2">
+        <v>-0.1327608989107317</v>
+      </c>
+      <c r="G2">
+        <v>0.07179888666462809</v>
+      </c>
+      <c r="H2">
+        <v>0.04520528361504522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03533932889990039</v>
+        <v>0.0190872587683621</v>
       </c>
       <c r="C4">
-        <v>-0.1089077734377699</v>
+        <v>0.1308673530827532</v>
       </c>
       <c r="D4">
-        <v>-0.07091818324257242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.01388731806125414</v>
+      </c>
+      <c r="E4">
+        <v>0.08519454558375879</v>
+      </c>
+      <c r="F4">
+        <v>-0.1113093334507478</v>
+      </c>
+      <c r="G4">
+        <v>-0.06476560706016146</v>
+      </c>
+      <c r="H4">
+        <v>0.02052160737449444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0271484881811553</v>
+        <v>0.0339867344611785</v>
       </c>
       <c r="C6">
-        <v>-0.0365694542924728</v>
+        <v>0.05039582838595755</v>
       </c>
       <c r="D6">
-        <v>-0.0823263383284166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01153821506924444</v>
+      </c>
+      <c r="E6">
+        <v>0.1151523179943693</v>
+      </c>
+      <c r="F6">
+        <v>-0.07585549106185813</v>
+      </c>
+      <c r="G6">
+        <v>0.002709925681609122</v>
+      </c>
+      <c r="H6">
+        <v>-0.04869529918095816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.008308106152437439</v>
+        <v>0.005634174995303209</v>
       </c>
       <c r="C7">
-        <v>-0.03604849385658717</v>
+        <v>0.05199975978355493</v>
       </c>
       <c r="D7">
-        <v>-0.06674803745495363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.001691189639938626</v>
+      </c>
+      <c r="E7">
+        <v>0.09356213784874581</v>
+      </c>
+      <c r="F7">
+        <v>-0.02596119541159091</v>
+      </c>
+      <c r="G7">
+        <v>-0.01954494622765424</v>
+      </c>
+      <c r="H7">
+        <v>-0.005444040137169709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0001657391251913529</v>
+        <v>-0.005552806541276855</v>
       </c>
       <c r="C8">
-        <v>-0.04292251771706735</v>
+        <v>0.05242423961340752</v>
       </c>
       <c r="D8">
-        <v>-0.06284320729256743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.008583758689737875</v>
+      </c>
+      <c r="E8">
+        <v>0.06348937448351524</v>
+      </c>
+      <c r="F8">
+        <v>-0.07975517525773286</v>
+      </c>
+      <c r="G8">
+        <v>-0.008681494191508411</v>
+      </c>
+      <c r="H8">
+        <v>0.06860880227652001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02252040829828065</v>
+        <v>0.01187160007783861</v>
       </c>
       <c r="C9">
-        <v>-0.09340027788201746</v>
+        <v>0.1084139527937231</v>
       </c>
       <c r="D9">
-        <v>-0.07626269816430326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01547676575359756</v>
+      </c>
+      <c r="E9">
+        <v>0.07809675033398597</v>
+      </c>
+      <c r="F9">
+        <v>-0.08303310774125838</v>
+      </c>
+      <c r="G9">
+        <v>-0.02622127888627861</v>
+      </c>
+      <c r="H9">
+        <v>-0.01270728358531852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2215955483652035</v>
+        <v>0.242995731407134</v>
       </c>
       <c r="C10">
-        <v>0.10419982302538</v>
+        <v>-0.08012806993400647</v>
       </c>
       <c r="D10">
-        <v>0.03960383231814404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001161193597984016</v>
+      </c>
+      <c r="E10">
+        <v>-0.026945454983886</v>
+      </c>
+      <c r="F10">
+        <v>-0.02198486605695857</v>
+      </c>
+      <c r="G10">
+        <v>-0.01137537083436865</v>
+      </c>
+      <c r="H10">
+        <v>-0.00865063324490112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.004401566420114595</v>
+        <v>0.009052094801635921</v>
       </c>
       <c r="C11">
-        <v>-0.04348883472674493</v>
+        <v>0.06338223162227181</v>
       </c>
       <c r="D11">
-        <v>-0.03988395338500031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002742859592291223</v>
+      </c>
+      <c r="E11">
+        <v>0.05482654436299661</v>
+      </c>
+      <c r="F11">
+        <v>-0.01060319500729726</v>
+      </c>
+      <c r="G11">
+        <v>-0.0131224266354236</v>
+      </c>
+      <c r="H11">
+        <v>-0.007625121740036005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.005223602706703944</v>
+        <v>0.01003833162566058</v>
       </c>
       <c r="C12">
-        <v>-0.04653709829228905</v>
+        <v>0.05445496952630284</v>
       </c>
       <c r="D12">
-        <v>-0.04593320455455652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006778629486199279</v>
+      </c>
+      <c r="E12">
+        <v>0.04991431859131576</v>
+      </c>
+      <c r="F12">
+        <v>-0.01050889916675847</v>
+      </c>
+      <c r="G12">
+        <v>0.01467771855097871</v>
+      </c>
+      <c r="H12">
+        <v>-0.02439436101022957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01777433197550633</v>
+        <v>0.005728872324092435</v>
       </c>
       <c r="C13">
-        <v>-0.05552664756819276</v>
+        <v>0.08703398086486082</v>
       </c>
       <c r="D13">
-        <v>-0.1099193094110334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04864630634680326</v>
+      </c>
+      <c r="E13">
+        <v>0.1227260627023593</v>
+      </c>
+      <c r="F13">
+        <v>-0.06045516157977318</v>
+      </c>
+      <c r="G13">
+        <v>0.09499617517308666</v>
+      </c>
+      <c r="H13">
+        <v>-0.02552625262740794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01070922599835746</v>
+        <v>0.002436676242445926</v>
       </c>
       <c r="C14">
-        <v>-0.02266879767297375</v>
+        <v>0.04488692674985965</v>
       </c>
       <c r="D14">
-        <v>-0.05813627617564161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007818963563925042</v>
+      </c>
+      <c r="E14">
+        <v>0.1063718161950729</v>
+      </c>
+      <c r="F14">
+        <v>-0.05555662785910998</v>
+      </c>
+      <c r="G14">
+        <v>0.03370438501298574</v>
+      </c>
+      <c r="H14">
+        <v>-0.03335994669854677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002433244117756729</v>
+        <v>-0.005166173903634591</v>
       </c>
       <c r="C15">
-        <v>-0.01704398617602279</v>
+        <v>0.03924832596323646</v>
       </c>
       <c r="D15">
-        <v>-0.05493778640986027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01329962213956547</v>
+      </c>
+      <c r="E15">
+        <v>0.07068414904427561</v>
+      </c>
+      <c r="F15">
+        <v>-0.02957117545953845</v>
+      </c>
+      <c r="G15">
+        <v>0.0006558388511805459</v>
+      </c>
+      <c r="H15">
+        <v>0.0108985637040362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006214137303646589</v>
+        <v>0.009258255432071243</v>
       </c>
       <c r="C16">
-        <v>-0.04321364517935383</v>
+        <v>0.05665565256128144</v>
       </c>
       <c r="D16">
-        <v>-0.04276701989737935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002548013366912991</v>
+      </c>
+      <c r="E16">
+        <v>0.05163062749068627</v>
+      </c>
+      <c r="F16">
+        <v>-0.008264045495216298</v>
+      </c>
+      <c r="G16">
+        <v>-0.01081582223624064</v>
+      </c>
+      <c r="H16">
+        <v>-0.02546605878705741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002648144966564223</v>
+        <v>0.0003495021378377609</v>
       </c>
       <c r="C19">
-        <v>-0.02783776165010364</v>
+        <v>0.02038709685185711</v>
       </c>
       <c r="D19">
-        <v>-0.03899780216432771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.00931323996193296</v>
+      </c>
+      <c r="E19">
+        <v>0.01068587825278152</v>
+      </c>
+      <c r="F19">
+        <v>0.002951040747781815</v>
+      </c>
+      <c r="G19">
+        <v>0.02530800162306502</v>
+      </c>
+      <c r="H19">
+        <v>0.02035833071458591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002209481588642608</v>
+        <v>0.003209290426179712</v>
       </c>
       <c r="C20">
-        <v>-0.03894535804553722</v>
+        <v>0.05930401719047774</v>
       </c>
       <c r="D20">
-        <v>-0.05384537907989876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01599834444136061</v>
+      </c>
+      <c r="E20">
+        <v>0.0736114135446434</v>
+      </c>
+      <c r="F20">
+        <v>-0.02975495688450491</v>
+      </c>
+      <c r="G20">
+        <v>-0.0233210523527359</v>
+      </c>
+      <c r="H20">
+        <v>-0.01794448334825843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002965776127136962</v>
+        <v>0.002843905576091306</v>
       </c>
       <c r="C21">
-        <v>-0.06186052564966479</v>
+        <v>0.07238727402598022</v>
       </c>
       <c r="D21">
-        <v>-0.07394625732127075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01318699407225184</v>
+      </c>
+      <c r="E21">
+        <v>0.07951521503550561</v>
+      </c>
+      <c r="F21">
+        <v>-0.09421872248994724</v>
+      </c>
+      <c r="G21">
+        <v>0.1111560111583334</v>
+      </c>
+      <c r="H21">
+        <v>-0.01578066203369732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002433304958297213</v>
+        <v>-0.01131884953710801</v>
       </c>
       <c r="C22">
-        <v>-0.07665126784816113</v>
+        <v>0.1023171467851023</v>
       </c>
       <c r="D22">
-        <v>-0.1895184821567922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1008411606189751</v>
+      </c>
+      <c r="E22">
+        <v>0.1978367323019221</v>
+      </c>
+      <c r="F22">
+        <v>-0.2122390127585784</v>
+      </c>
+      <c r="G22">
+        <v>-0.06154322298324161</v>
+      </c>
+      <c r="H22">
+        <v>0.2503446099020763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002609098885193819</v>
+        <v>-0.008285894812196291</v>
       </c>
       <c r="C23">
-        <v>-0.07774102099626645</v>
+        <v>0.1050416515127086</v>
       </c>
       <c r="D23">
-        <v>-0.1886024950212168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1039115864926838</v>
+      </c>
+      <c r="E23">
+        <v>0.196252286531933</v>
+      </c>
+      <c r="F23">
+        <v>-0.2110813454244271</v>
+      </c>
+      <c r="G23">
+        <v>-0.05745201805737191</v>
+      </c>
+      <c r="H23">
+        <v>0.2409448858070962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006408663098203527</v>
+        <v>0.009706993801757158</v>
       </c>
       <c r="C24">
-        <v>-0.0644118888885661</v>
+        <v>0.07274651387887671</v>
       </c>
       <c r="D24">
-        <v>-0.05234866616116238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.006009995738119911</v>
+      </c>
+      <c r="E24">
+        <v>0.05933694110448986</v>
+      </c>
+      <c r="F24">
+        <v>-0.01389754407482038</v>
+      </c>
+      <c r="G24">
+        <v>-0.002058220244453077</v>
+      </c>
+      <c r="H24">
+        <v>-0.008919372559433966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.008392008116835818</v>
+        <v>0.01390203950273197</v>
       </c>
       <c r="C25">
-        <v>-0.05695263157897009</v>
+        <v>0.06737320395738236</v>
       </c>
       <c r="D25">
-        <v>-0.0410998633594385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.005308173999099862</v>
+      </c>
+      <c r="E25">
+        <v>0.04511281941645706</v>
+      </c>
+      <c r="F25">
+        <v>-0.01392173779109106</v>
+      </c>
+      <c r="G25">
+        <v>-0.01092544684296937</v>
+      </c>
+      <c r="H25">
+        <v>-0.01331308970435481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007708212174468393</v>
+        <v>0.01662116146689535</v>
       </c>
       <c r="C26">
-        <v>-0.02869302203103825</v>
+        <v>0.0461589704238904</v>
       </c>
       <c r="D26">
-        <v>-0.04721758760214985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02080148093017743</v>
+      </c>
+      <c r="E26">
+        <v>0.06898401163490679</v>
+      </c>
+      <c r="F26">
+        <v>-0.05793686981252703</v>
+      </c>
+      <c r="G26">
+        <v>0.01413137286585941</v>
+      </c>
+      <c r="H26">
+        <v>0.01343116752826073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3053856734263828</v>
+        <v>0.3144095900941822</v>
       </c>
       <c r="C28">
-        <v>0.1047468475905234</v>
+        <v>-0.08603040575995455</v>
       </c>
       <c r="D28">
-        <v>0.02196880555259192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01852575576408835</v>
+      </c>
+      <c r="E28">
+        <v>-0.05268999118689357</v>
+      </c>
+      <c r="F28">
+        <v>-0.06211606870065393</v>
+      </c>
+      <c r="G28">
+        <v>-0.001962075177242408</v>
+      </c>
+      <c r="H28">
+        <v>0.08059491114117853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001087234054807379</v>
+        <v>0.002392592722254029</v>
       </c>
       <c r="C29">
-        <v>-0.02987743594100779</v>
+        <v>0.05295544964349981</v>
       </c>
       <c r="D29">
-        <v>-0.06247459719216513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.006506218703985833</v>
+      </c>
+      <c r="E29">
+        <v>0.1174089050100347</v>
+      </c>
+      <c r="F29">
+        <v>-0.05933628141234611</v>
+      </c>
+      <c r="G29">
+        <v>0.03793351612214192</v>
+      </c>
+      <c r="H29">
+        <v>-0.05529604182356937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01754986740174714</v>
+        <v>0.016178244228797</v>
       </c>
       <c r="C30">
-        <v>-0.09531156815041972</v>
+        <v>0.1163965523516573</v>
       </c>
       <c r="D30">
-        <v>-0.1334945860174234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.01293181136756976</v>
+      </c>
+      <c r="E30">
+        <v>0.1414863130517811</v>
+      </c>
+      <c r="F30">
+        <v>-0.05312112117350712</v>
+      </c>
+      <c r="G30">
+        <v>-0.02541112313293931</v>
+      </c>
+      <c r="H30">
+        <v>-0.0008524039201506093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01425006450151261</v>
+        <v>0.008282548675341988</v>
       </c>
       <c r="C31">
-        <v>-0.09909216494475345</v>
+        <v>0.1028965802063326</v>
       </c>
       <c r="D31">
-        <v>-0.03521064381652725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.007938148809496844</v>
+      </c>
+      <c r="E31">
+        <v>0.02151366541680752</v>
+      </c>
+      <c r="F31">
+        <v>-0.007063516865078474</v>
+      </c>
+      <c r="G31">
+        <v>0.0117285135280071</v>
+      </c>
+      <c r="H31">
+        <v>0.02780482976940179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01089288022345945</v>
+        <v>0.01197288346244178</v>
       </c>
       <c r="C32">
-        <v>-0.05735077152849738</v>
+        <v>0.06505425008132018</v>
       </c>
       <c r="D32">
-        <v>-0.07714945015988589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04965289704190212</v>
+      </c>
+      <c r="E32">
+        <v>0.04497951851904835</v>
+      </c>
+      <c r="F32">
+        <v>-0.08300743491336603</v>
+      </c>
+      <c r="G32">
+        <v>0.03587267943485277</v>
+      </c>
+      <c r="H32">
+        <v>0.00637341994188595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.000132237864334976</v>
+        <v>0.007092034282589464</v>
       </c>
       <c r="C33">
-        <v>-0.05945011736023782</v>
+        <v>0.08272888067669332</v>
       </c>
       <c r="D33">
-        <v>-0.07860937769571963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01704716513047761</v>
+      </c>
+      <c r="E33">
+        <v>0.09576075857947863</v>
+      </c>
+      <c r="F33">
+        <v>-0.0485164634180497</v>
+      </c>
+      <c r="G33">
+        <v>0.003855841239425652</v>
+      </c>
+      <c r="H33">
+        <v>-0.007154194972050178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.003454413328270369</v>
+        <v>0.008971206902841347</v>
       </c>
       <c r="C34">
-        <v>-0.060920390523646</v>
+        <v>0.06232050938066837</v>
       </c>
       <c r="D34">
-        <v>-0.05597201250610917</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004348333619400447</v>
+      </c>
+      <c r="E34">
+        <v>0.04686152727546134</v>
+      </c>
+      <c r="F34">
+        <v>0.01635235442010318</v>
+      </c>
+      <c r="G34">
+        <v>0.01687664646250716</v>
+      </c>
+      <c r="H34">
+        <v>-0.001912390316004621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009155342185873642</v>
+        <v>0.004314911450056001</v>
       </c>
       <c r="C35">
-        <v>-0.001260066742980227</v>
+        <v>0.02094556945425336</v>
       </c>
       <c r="D35">
-        <v>-0.005284202278746103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.006548234981356541</v>
+      </c>
+      <c r="E35">
+        <v>0.03502587837598671</v>
+      </c>
+      <c r="F35">
+        <v>-0.03192437451193954</v>
+      </c>
+      <c r="G35">
+        <v>0.001378601874060318</v>
+      </c>
+      <c r="H35">
+        <v>-0.02589673464964668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005482580888763169</v>
+        <v>0.01038135380027418</v>
       </c>
       <c r="C36">
-        <v>-0.02923450983194618</v>
+        <v>0.03904745923806979</v>
       </c>
       <c r="D36">
-        <v>-0.04120772518695708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.006796838524774265</v>
+      </c>
+      <c r="E36">
+        <v>0.06094527300015713</v>
+      </c>
+      <c r="F36">
+        <v>-0.05329276906082373</v>
+      </c>
+      <c r="G36">
+        <v>0.004619183384542017</v>
+      </c>
+      <c r="H36">
+        <v>0.001148395936640222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005505081834945658</v>
+        <v>0.006989952219317621</v>
       </c>
       <c r="C38">
-        <v>-0.02322163697264546</v>
+        <v>0.04301833288072003</v>
       </c>
       <c r="D38">
-        <v>-0.07136926933544485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01827323002283265</v>
+      </c>
+      <c r="E38">
+        <v>0.07768835694256872</v>
+      </c>
+      <c r="F38">
+        <v>-0.02376912019855946</v>
+      </c>
+      <c r="G38">
+        <v>-0.01856598120118745</v>
+      </c>
+      <c r="H38">
+        <v>0.05340873077363482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006736728481574265</v>
+        <v>0.00725186581514383</v>
       </c>
       <c r="C39">
-        <v>-0.07210308959615655</v>
+        <v>0.09945912927883567</v>
       </c>
       <c r="D39">
-        <v>-0.098688332194714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.009902293319513204</v>
+      </c>
+      <c r="E39">
+        <v>0.115751891312887</v>
+      </c>
+      <c r="F39">
+        <v>-0.01920688968091293</v>
+      </c>
+      <c r="G39">
+        <v>0.004552489685871027</v>
+      </c>
+      <c r="H39">
+        <v>-0.03144945382421127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.002729201676194579</v>
+        <v>0.009076196510371431</v>
       </c>
       <c r="C40">
-        <v>-0.03220386843500305</v>
+        <v>0.0472244947668613</v>
       </c>
       <c r="D40">
-        <v>-0.1038852292775219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01467767412839345</v>
+      </c>
+      <c r="E40">
+        <v>0.1192118042183625</v>
+      </c>
+      <c r="F40">
+        <v>-0.009710282091652058</v>
+      </c>
+      <c r="G40">
+        <v>0.04003997809335996</v>
+      </c>
+      <c r="H40">
+        <v>0.007141160401719755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009250850746980932</v>
+        <v>0.01692905914804017</v>
       </c>
       <c r="C41">
-        <v>-0.02162843787740881</v>
+        <v>0.0382315311770596</v>
       </c>
       <c r="D41">
-        <v>-0.01743885204944816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006643160873764802</v>
+      </c>
+      <c r="E41">
+        <v>0.02108216019272655</v>
+      </c>
+      <c r="F41">
+        <v>-0.006520476814984555</v>
+      </c>
+      <c r="G41">
+        <v>-0.001477001056058245</v>
+      </c>
+      <c r="H41">
+        <v>0.00992876384017289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002856710561522281</v>
+        <v>0.008176343847797847</v>
       </c>
       <c r="C43">
-        <v>-0.01829992707334321</v>
+        <v>0.03220823293569127</v>
       </c>
       <c r="D43">
-        <v>-0.03484644278490828</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006160992479145267</v>
+      </c>
+      <c r="E43">
+        <v>0.03928266092929746</v>
+      </c>
+      <c r="F43">
+        <v>-0.009892113265010206</v>
+      </c>
+      <c r="G43">
+        <v>-0.008169497201960236</v>
+      </c>
+      <c r="H43">
+        <v>0.01140524114173979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01371179993433797</v>
+        <v>0.007320072166345852</v>
       </c>
       <c r="C44">
-        <v>-0.05250217775728394</v>
+        <v>0.06972949250799679</v>
       </c>
       <c r="D44">
-        <v>-0.08111672945809593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.002872578864738454</v>
+      </c>
+      <c r="E44">
+        <v>0.1087326377092608</v>
+      </c>
+      <c r="F44">
+        <v>-0.06485447808218399</v>
+      </c>
+      <c r="G44">
+        <v>-0.005290001591131068</v>
+      </c>
+      <c r="H44">
+        <v>0.0170628693893539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.00519341124793984</v>
+        <v>-0.002266298760737565</v>
       </c>
       <c r="C46">
-        <v>-0.03857099987925884</v>
+        <v>0.05146544003313232</v>
       </c>
       <c r="D46">
-        <v>-0.06400714078711947</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01100943310920585</v>
+      </c>
+      <c r="E46">
+        <v>0.0877797840879683</v>
+      </c>
+      <c r="F46">
+        <v>-0.05088122039294368</v>
+      </c>
+      <c r="G46">
+        <v>0.01480928308343449</v>
+      </c>
+      <c r="H46">
+        <v>-0.01556070700821136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03938038936574926</v>
+        <v>0.02562424421033276</v>
       </c>
       <c r="C47">
-        <v>-0.1329452394374849</v>
+        <v>0.1263552845536097</v>
       </c>
       <c r="D47">
-        <v>-0.04375099103898858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004258714012187031</v>
+      </c>
+      <c r="E47">
+        <v>0.004110895348928532</v>
+      </c>
+      <c r="F47">
+        <v>0.009482899932028123</v>
+      </c>
+      <c r="G47">
+        <v>-0.006562703628539052</v>
+      </c>
+      <c r="H47">
+        <v>0.0234346244325127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003772927222015934</v>
+        <v>0.01246558503035734</v>
       </c>
       <c r="C48">
-        <v>-0.03306171398235246</v>
+        <v>0.04665702118687992</v>
       </c>
       <c r="D48">
-        <v>-0.04216370488137176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.005722717306206296</v>
+      </c>
+      <c r="E48">
+        <v>0.06396685370997104</v>
+      </c>
+      <c r="F48">
+        <v>-0.06638871907062203</v>
+      </c>
+      <c r="G48">
+        <v>0.001497378734348707</v>
+      </c>
+      <c r="H48">
+        <v>0.009266923663622967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002810042898288991</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006228570274048944</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001352894143758551</v>
+      </c>
+      <c r="E49">
+        <v>0.002424519515267471</v>
+      </c>
+      <c r="F49">
+        <v>0.01310175242708555</v>
+      </c>
+      <c r="G49">
+        <v>0.0003264438072777214</v>
+      </c>
+      <c r="H49">
+        <v>-0.01632808627036161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01878973798510082</v>
+        <v>0.01169329767826147</v>
       </c>
       <c r="C50">
-        <v>-0.07342564362942018</v>
+        <v>0.08396144032010276</v>
       </c>
       <c r="D50">
-        <v>-0.05624576359604642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005472080309516842</v>
+      </c>
+      <c r="E50">
+        <v>0.04014059620331187</v>
+      </c>
+      <c r="F50">
+        <v>-0.00764927292119709</v>
+      </c>
+      <c r="G50">
+        <v>-0.003857776847432489</v>
+      </c>
+      <c r="H50">
+        <v>0.03206397052304143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005151824070179005</v>
+        <v>-0.005005168853739322</v>
       </c>
       <c r="C51">
-        <v>-0.01224790336747608</v>
+        <v>0.02481392117143407</v>
       </c>
       <c r="D51">
-        <v>-0.051333704407285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01227422422081877</v>
+      </c>
+      <c r="E51">
+        <v>0.06019984079127904</v>
+      </c>
+      <c r="F51">
+        <v>-0.05629502827338139</v>
+      </c>
+      <c r="G51">
+        <v>0.01740136588689665</v>
+      </c>
+      <c r="H51">
+        <v>0.00463473129687825</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07282997645611806</v>
+        <v>0.05560554693767036</v>
       </c>
       <c r="C53">
-        <v>-0.1643320366761547</v>
+        <v>0.1683420839099022</v>
       </c>
       <c r="D53">
-        <v>0.01258142865876604</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02442005915097933</v>
+      </c>
+      <c r="E53">
+        <v>-0.05964778839523065</v>
+      </c>
+      <c r="F53">
+        <v>0.007249056482151024</v>
+      </c>
+      <c r="G53">
+        <v>0.01380814976703261</v>
+      </c>
+      <c r="H53">
+        <v>0.03324348238426054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00116217331402157</v>
+        <v>0.00995598583646096</v>
       </c>
       <c r="C54">
-        <v>-0.03794022846551932</v>
+        <v>0.05344209215301339</v>
       </c>
       <c r="D54">
-        <v>-0.08021494453395304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02177168638111007</v>
+      </c>
+      <c r="E54">
+        <v>0.07728735987116726</v>
+      </c>
+      <c r="F54">
+        <v>-0.02883885441235374</v>
+      </c>
+      <c r="G54">
+        <v>0.001882190218766963</v>
+      </c>
+      <c r="H54">
+        <v>0.0130526991287616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05500090869878323</v>
+        <v>0.03605369379132953</v>
       </c>
       <c r="C55">
-        <v>-0.1277282536492849</v>
+        <v>0.1245281739825999</v>
       </c>
       <c r="D55">
-        <v>0.008066113367766333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04634598007728519</v>
+      </c>
+      <c r="E55">
+        <v>-0.04445465712982309</v>
+      </c>
+      <c r="F55">
+        <v>0.03303374554020722</v>
+      </c>
+      <c r="G55">
+        <v>0.0254035377244591</v>
+      </c>
+      <c r="H55">
+        <v>0.04052364026712144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08671412605157088</v>
+        <v>0.05550411550867627</v>
       </c>
       <c r="C56">
-        <v>-0.1901574070578559</v>
+        <v>0.1922742869604022</v>
       </c>
       <c r="D56">
-        <v>-0.01003054905717151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03785712917804405</v>
+      </c>
+      <c r="E56">
+        <v>-0.07208953869392674</v>
+      </c>
+      <c r="F56">
+        <v>0.0477985314213324</v>
+      </c>
+      <c r="G56">
+        <v>0.05596198434534499</v>
+      </c>
+      <c r="H56">
+        <v>0.107582122735415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0128291563317256</v>
+        <v>0.008832066608581886</v>
       </c>
       <c r="C58">
-        <v>-0.0573916875247102</v>
+        <v>0.1039794973261088</v>
       </c>
       <c r="D58">
-        <v>-0.1677519392776976</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.101618323540684</v>
+      </c>
+      <c r="E58">
+        <v>0.1851755077136542</v>
+      </c>
+      <c r="F58">
+        <v>-0.2448475609081854</v>
+      </c>
+      <c r="G58">
+        <v>-0.03827151954981356</v>
+      </c>
+      <c r="H58">
+        <v>0.1390303277788147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2287780756367268</v>
+        <v>0.2632378317739215</v>
       </c>
       <c r="C59">
-        <v>0.06653192609303486</v>
+        <v>-0.04298160618293183</v>
       </c>
       <c r="D59">
-        <v>-0.04532693240131774</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03634801430172217</v>
+      </c>
+      <c r="E59">
+        <v>0.01694834898922879</v>
+      </c>
+      <c r="F59">
+        <v>-0.04129688441383493</v>
+      </c>
+      <c r="G59">
+        <v>0.03748437664509557</v>
+      </c>
+      <c r="H59">
+        <v>0.01086335398001714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1457517919653938</v>
+        <v>0.1502060828786898</v>
       </c>
       <c r="C60">
-        <v>-0.1396896794731209</v>
+        <v>0.165131519888704</v>
       </c>
       <c r="D60">
-        <v>-0.1182337972211954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01451835283190652</v>
+      </c>
+      <c r="E60">
+        <v>0.1259242653245211</v>
+      </c>
+      <c r="F60">
+        <v>0.2116785243974688</v>
+      </c>
+      <c r="G60">
+        <v>0.006036787534290636</v>
+      </c>
+      <c r="H60">
+        <v>-0.2469342221685405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01118919998112288</v>
+        <v>0.01301908264092174</v>
       </c>
       <c r="C61">
-        <v>-0.06467005180960758</v>
+        <v>0.08653582712222821</v>
       </c>
       <c r="D61">
-        <v>-0.06885129812998111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.003597092659483327</v>
+      </c>
+      <c r="E61">
+        <v>0.07835303584237072</v>
+      </c>
+      <c r="F61">
+        <v>-0.00766546722320367</v>
+      </c>
+      <c r="G61">
+        <v>0.008114835926590788</v>
+      </c>
+      <c r="H61">
+        <v>-0.01170426052121998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001416438123807374</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0003875991365285305</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.002190672488013752</v>
+      </c>
+      <c r="E62">
+        <v>0.0001919736513150671</v>
+      </c>
+      <c r="F62">
+        <v>-0.003012196487121923</v>
+      </c>
+      <c r="G62">
+        <v>0.0007303810514590905</v>
+      </c>
+      <c r="H62">
+        <v>0.001218121274873664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002844727620605485</v>
+        <v>0.01486166977524311</v>
       </c>
       <c r="C63">
-        <v>-0.04024424114255062</v>
+        <v>0.05772855882989383</v>
       </c>
       <c r="D63">
-        <v>-0.06197828281060645</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02158510534986659</v>
+      </c>
+      <c r="E63">
+        <v>0.08373534042373591</v>
+      </c>
+      <c r="F63">
+        <v>-0.02721081211153353</v>
+      </c>
+      <c r="G63">
+        <v>0.003025541013146752</v>
+      </c>
+      <c r="H63">
+        <v>-0.01506446616460063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02569014485611229</v>
+        <v>0.01320383608250975</v>
       </c>
       <c r="C64">
-        <v>-0.107866367041605</v>
+        <v>0.1050312039607759</v>
       </c>
       <c r="D64">
-        <v>-0.009373083485124797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01619808535432873</v>
+      </c>
+      <c r="E64">
+        <v>0.01510889791051019</v>
+      </c>
+      <c r="F64">
+        <v>-0.02258850788195123</v>
+      </c>
+      <c r="G64">
+        <v>-0.03235651791506778</v>
+      </c>
+      <c r="H64">
+        <v>-0.02040512373107442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02387271367836284</v>
+        <v>0.02684204054901573</v>
       </c>
       <c r="C65">
-        <v>-0.03212519426811322</v>
+        <v>0.05755571323060427</v>
       </c>
       <c r="D65">
-        <v>-0.08432789352026485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03029391774944401</v>
+      </c>
+      <c r="E65">
+        <v>0.1170990436197799</v>
+      </c>
+      <c r="F65">
+        <v>-0.01243668587051935</v>
+      </c>
+      <c r="G65">
+        <v>-0.05140079621851636</v>
+      </c>
+      <c r="H65">
+        <v>-0.06871548159445963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01308172992787227</v>
+        <v>0.008311310234088445</v>
       </c>
       <c r="C66">
-        <v>-0.09158399508931071</v>
+        <v>0.1244311500495608</v>
       </c>
       <c r="D66">
-        <v>-0.120049563774322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01842167631522386</v>
+      </c>
+      <c r="E66">
+        <v>0.1226893193153715</v>
+      </c>
+      <c r="F66">
+        <v>-0.02429661142073271</v>
+      </c>
+      <c r="G66">
+        <v>0.008776558324939544</v>
+      </c>
+      <c r="H66">
+        <v>0.001662996192504701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01378394885725526</v>
+        <v>0.01551380511466596</v>
       </c>
       <c r="C67">
-        <v>-0.02556426981508356</v>
+        <v>0.0423603030209139</v>
       </c>
       <c r="D67">
-        <v>-0.03984151095554175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003214551053242554</v>
+      </c>
+      <c r="E67">
+        <v>0.05158165627820032</v>
+      </c>
+      <c r="F67">
+        <v>0.01604009818142335</v>
+      </c>
+      <c r="G67">
+        <v>-0.01425211377120466</v>
+      </c>
+      <c r="H67">
+        <v>0.03493743170067866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2414217989874424</v>
+        <v>0.2808979294561063</v>
       </c>
       <c r="C68">
-        <v>0.08326843232825513</v>
+        <v>-0.05688372150954835</v>
       </c>
       <c r="D68">
-        <v>-0.0262511944601351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02616012830137635</v>
+      </c>
+      <c r="E68">
+        <v>0.03659338835320916</v>
+      </c>
+      <c r="F68">
+        <v>-0.0571919769956483</v>
+      </c>
+      <c r="G68">
+        <v>0.002253820033442403</v>
+      </c>
+      <c r="H68">
+        <v>0.03488797458853093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.02635361794573981</v>
+        <v>0.01125889359280523</v>
       </c>
       <c r="C69">
-        <v>-0.133577963180131</v>
+        <v>0.1142483710195541</v>
       </c>
       <c r="D69">
-        <v>-0.05558122344819707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004144282219945337</v>
+      </c>
+      <c r="E69">
+        <v>0.01248791593145507</v>
+      </c>
+      <c r="F69">
+        <v>0.01768146549976424</v>
+      </c>
+      <c r="G69">
+        <v>0.006463420860743353</v>
+      </c>
+      <c r="H69">
+        <v>0.01644410914714665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2606615301301977</v>
+        <v>0.2712281542865894</v>
       </c>
       <c r="C71">
-        <v>0.09798656404254015</v>
+        <v>-0.07252342094191616</v>
       </c>
       <c r="D71">
-        <v>-0.01561100087505085</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01021421437508156</v>
+      </c>
+      <c r="E71">
+        <v>0.008159126387078063</v>
+      </c>
+      <c r="F71">
+        <v>-0.02634196316949088</v>
+      </c>
+      <c r="G71">
+        <v>0.0006086465288502464</v>
+      </c>
+      <c r="H71">
+        <v>0.06063697078296468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07928457977368671</v>
+        <v>0.06192769216176404</v>
       </c>
       <c r="C72">
-        <v>-0.1137825644307851</v>
+        <v>0.133062214937289</v>
       </c>
       <c r="D72">
-        <v>-0.09230699794396498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01697256236890211</v>
+      </c>
+      <c r="E72">
+        <v>0.07510886559734303</v>
+      </c>
+      <c r="F72">
+        <v>0.03278490730644969</v>
+      </c>
+      <c r="G72">
+        <v>-0.01955246519463957</v>
+      </c>
+      <c r="H72">
+        <v>-0.04791754419713061</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.154411693731723</v>
+        <v>0.1575780803141695</v>
       </c>
       <c r="C73">
-        <v>-0.1156265747978286</v>
+        <v>0.1733603756683431</v>
       </c>
       <c r="D73">
-        <v>-0.179197758208567</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08037216175067159</v>
+      </c>
+      <c r="E73">
+        <v>0.251588278433184</v>
+      </c>
+      <c r="F73">
+        <v>0.3548510349312187</v>
+      </c>
+      <c r="G73">
+        <v>-0.05472849129668657</v>
+      </c>
+      <c r="H73">
+        <v>-0.3600549883643931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06671358801071869</v>
+        <v>0.04609254487304494</v>
       </c>
       <c r="C74">
-        <v>-0.141554659294361</v>
+        <v>0.1387752029576775</v>
       </c>
       <c r="D74">
-        <v>0.05784866008263098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03769510148597591</v>
+      </c>
+      <c r="E74">
+        <v>-0.07461846605027066</v>
+      </c>
+      <c r="F74">
+        <v>0.004431353917269786</v>
+      </c>
+      <c r="G74">
+        <v>0.003352359970449271</v>
+      </c>
+      <c r="H74">
+        <v>0.03096759831775167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1547836588133135</v>
+        <v>0.09055833823000796</v>
       </c>
       <c r="C75">
-        <v>-0.2550587365002549</v>
+        <v>0.2509705066874338</v>
       </c>
       <c r="D75">
-        <v>0.03584243104302175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03763394341367796</v>
+      </c>
+      <c r="E75">
+        <v>-0.1695981477030178</v>
+      </c>
+      <c r="F75">
+        <v>0.137379487019118</v>
+      </c>
+      <c r="G75">
+        <v>0.02248487258363378</v>
+      </c>
+      <c r="H75">
+        <v>0.2268413322548343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.08701081111385131</v>
+        <v>0.05361942440677693</v>
       </c>
       <c r="C76">
-        <v>-0.1766309744053792</v>
+        <v>0.1775297632207253</v>
       </c>
       <c r="D76">
-        <v>-0.001550086505187694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03497235146047309</v>
+      </c>
+      <c r="E76">
+        <v>-0.07011294859983157</v>
+      </c>
+      <c r="F76">
+        <v>0.06875409697742139</v>
+      </c>
+      <c r="G76">
+        <v>0.04352267190735717</v>
+      </c>
+      <c r="H76">
+        <v>0.07197868892416202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.004940850857086577</v>
+        <v>0.002516080919264523</v>
       </c>
       <c r="C77">
-        <v>-0.1182303468738009</v>
+        <v>0.1557324973419426</v>
       </c>
       <c r="D77">
-        <v>-0.2003181924964341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9130946033785144</v>
+      </c>
+      <c r="E77">
+        <v>-0.2318291667483743</v>
+      </c>
+      <c r="F77">
+        <v>0.1026235448622973</v>
+      </c>
+      <c r="G77">
+        <v>-0.1098222249571885</v>
+      </c>
+      <c r="H77">
+        <v>-0.1338517359759684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02460805384065172</v>
+        <v>0.02453832176372548</v>
       </c>
       <c r="C78">
-        <v>-0.1030429961950578</v>
+        <v>0.1111107816261634</v>
       </c>
       <c r="D78">
-        <v>-0.125175211948659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.015451225237639</v>
+      </c>
+      <c r="E78">
+        <v>0.09944017050417306</v>
+      </c>
+      <c r="F78">
+        <v>-0.05981831426474359</v>
+      </c>
+      <c r="G78">
+        <v>0.06441580284761851</v>
+      </c>
+      <c r="H78">
+        <v>0.04365963406356548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07357067334190757</v>
+        <v>0.05176474885862406</v>
       </c>
       <c r="C79">
-        <v>-0.2960977291329295</v>
+        <v>0.2485136615848022</v>
       </c>
       <c r="D79">
-        <v>0.6909068603882516</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1910096384553046</v>
+      </c>
+      <c r="E79">
+        <v>-0.4135461208360418</v>
+      </c>
+      <c r="F79">
+        <v>-0.5559599933499914</v>
+      </c>
+      <c r="G79">
+        <v>-0.3347566676486178</v>
+      </c>
+      <c r="H79">
+        <v>-0.4829253712829016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.003898436461481169</v>
+        <v>0.00741044189621898</v>
       </c>
       <c r="C80">
-        <v>-0.05010339813288736</v>
+        <v>0.04970528425110587</v>
       </c>
       <c r="D80">
-        <v>-0.02514498278104091</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03038812699512632</v>
+      </c>
+      <c r="E80">
+        <v>0.051012253498714</v>
+      </c>
+      <c r="F80">
+        <v>0.01126225542977767</v>
+      </c>
+      <c r="G80">
+        <v>0.0606029252627973</v>
+      </c>
+      <c r="H80">
+        <v>-0.03192998240738808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0591549044082789</v>
+        <v>0.02594965517889014</v>
       </c>
       <c r="C81">
-        <v>-0.1642603339517141</v>
+        <v>0.1561566389240273</v>
       </c>
       <c r="D81">
-        <v>0.0708383125190591</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03886547303367071</v>
+      </c>
+      <c r="E81">
+        <v>-0.1094389682393078</v>
+      </c>
+      <c r="F81">
+        <v>-0.007237418971041988</v>
+      </c>
+      <c r="G81">
+        <v>0.04783989976665075</v>
+      </c>
+      <c r="H81">
+        <v>0.08420443293928191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1146751129024148</v>
+        <v>0.06511130108985475</v>
       </c>
       <c r="C82">
-        <v>-0.267315383570223</v>
+        <v>0.2303926713906859</v>
       </c>
       <c r="D82">
-        <v>0.04326776553316469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05271635850131252</v>
+      </c>
+      <c r="E82">
+        <v>-0.1613208782145687</v>
+      </c>
+      <c r="F82">
+        <v>0.08354579079011645</v>
+      </c>
+      <c r="G82">
+        <v>0.1039312357475669</v>
+      </c>
+      <c r="H82">
+        <v>0.1490644324507308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01832306143111456</v>
+        <v>-0.007058660445862119</v>
       </c>
       <c r="C83">
-        <v>-0.0477161209145605</v>
+        <v>0.01753405185550468</v>
       </c>
       <c r="D83">
-        <v>0.002056119093249968</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07932765222159491</v>
+      </c>
+      <c r="E83">
+        <v>-0.09388737105048639</v>
+      </c>
+      <c r="F83">
+        <v>-0.2156614124739408</v>
+      </c>
+      <c r="G83">
+        <v>0.8678961141554198</v>
+      </c>
+      <c r="H83">
+        <v>-0.264794887957959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001171784621946954</v>
+        <v>-0.002950727167984665</v>
       </c>
       <c r="C84">
-        <v>-0.00705302365505759</v>
+        <v>0.02383345448845653</v>
       </c>
       <c r="D84">
-        <v>-0.01557124912989075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01654743984063141</v>
+      </c>
+      <c r="E84">
+        <v>0.04372784495161628</v>
+      </c>
+      <c r="F84">
+        <v>-0.06161811587081206</v>
+      </c>
+      <c r="G84">
+        <v>-0.03103378461008513</v>
+      </c>
+      <c r="H84">
+        <v>0.05541380320016628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08323682340463479</v>
+        <v>0.0491274901961883</v>
       </c>
       <c r="C85">
-        <v>-0.1794243199052163</v>
+        <v>0.1722990498912463</v>
       </c>
       <c r="D85">
-        <v>0.09318058607610276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09961443257199649</v>
+      </c>
+      <c r="E85">
+        <v>-0.1132567538653641</v>
+      </c>
+      <c r="F85">
+        <v>0.002958919456191696</v>
+      </c>
+      <c r="G85">
+        <v>0.009983338511291771</v>
+      </c>
+      <c r="H85">
+        <v>0.05408080409160015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0274571671788406</v>
+        <v>0.01610614304815614</v>
       </c>
       <c r="C86">
-        <v>-0.02740986490795764</v>
+        <v>0.05592135785389526</v>
       </c>
       <c r="D86">
-        <v>-0.07167896566718678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04960811484776402</v>
+      </c>
+      <c r="E86">
+        <v>0.05144656624451308</v>
+      </c>
+      <c r="F86">
+        <v>-0.07817745164200586</v>
+      </c>
+      <c r="G86">
+        <v>-0.0262688652844465</v>
+      </c>
+      <c r="H86">
+        <v>0.06109688416648446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02016937763626811</v>
+        <v>0.01185099323801948</v>
       </c>
       <c r="C87">
-        <v>-0.06331507225294587</v>
+        <v>0.08035680190187452</v>
       </c>
       <c r="D87">
-        <v>-0.1167716016724173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04104948389936489</v>
+      </c>
+      <c r="E87">
+        <v>0.1035598239969935</v>
+      </c>
+      <c r="F87">
+        <v>-0.09228251580923102</v>
+      </c>
+      <c r="G87">
+        <v>0.004839191725618614</v>
+      </c>
+      <c r="H87">
+        <v>0.04464718206368634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0338340828805844</v>
+        <v>0.03349880923319429</v>
       </c>
       <c r="C88">
-        <v>-0.07321053708534968</v>
+        <v>0.07994731763288521</v>
       </c>
       <c r="D88">
-        <v>-0.0001559291239281458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0186581895765567</v>
+      </c>
+      <c r="E88">
+        <v>0.01486107899257243</v>
+      </c>
+      <c r="F88">
+        <v>0.001390840888779942</v>
+      </c>
+      <c r="G88">
+        <v>-0.001356220419510722</v>
+      </c>
+      <c r="H88">
+        <v>0.007318159048160372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.4064960131482137</v>
+        <v>0.4027762391140713</v>
       </c>
       <c r="C89">
-        <v>0.1997806095547248</v>
+        <v>-0.1494765628981368</v>
       </c>
       <c r="D89">
-        <v>-0.002041711609511135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04062626908090486</v>
+      </c>
+      <c r="E89">
+        <v>0.0174451610499723</v>
+      </c>
+      <c r="F89">
+        <v>-0.1086526867080166</v>
+      </c>
+      <c r="G89">
+        <v>0.08926335907789509</v>
+      </c>
+      <c r="H89">
+        <v>-0.04847414762868939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3203750694742388</v>
+        <v>0.3247851200093277</v>
       </c>
       <c r="C90">
-        <v>0.1364555227954925</v>
+        <v>-0.09027053422021833</v>
       </c>
       <c r="D90">
-        <v>-0.06483485526153758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02939997199275714</v>
+      </c>
+      <c r="E90">
+        <v>0.03600299746769695</v>
+      </c>
+      <c r="F90">
+        <v>-0.004102259230510288</v>
+      </c>
+      <c r="G90">
+        <v>0.01699674945803488</v>
+      </c>
+      <c r="H90">
+        <v>0.04582860331655273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09046535351452299</v>
+        <v>0.05994321295728525</v>
       </c>
       <c r="C91">
-        <v>-0.2219554527202199</v>
+        <v>0.1916073506091076</v>
       </c>
       <c r="D91">
-        <v>0.1062227977558383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03955554041622479</v>
+      </c>
+      <c r="E91">
+        <v>-0.1624024965345472</v>
+      </c>
+      <c r="F91">
+        <v>-0.00128183470781682</v>
+      </c>
+      <c r="G91">
+        <v>0.03382214876099539</v>
+      </c>
+      <c r="H91">
+        <v>0.04574052403360959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3191728637238118</v>
+        <v>0.3435994829508176</v>
       </c>
       <c r="C92">
-        <v>0.1745117132801132</v>
+        <v>-0.1359770029955689</v>
       </c>
       <c r="D92">
-        <v>0.04921387522339665</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05838880366682686</v>
+      </c>
+      <c r="E92">
+        <v>-0.04080335438357204</v>
+      </c>
+      <c r="F92">
+        <v>-0.07436001957096758</v>
+      </c>
+      <c r="G92">
+        <v>-0.07863643762817552</v>
+      </c>
+      <c r="H92">
+        <v>0.07029403002727788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3369279512400722</v>
+        <v>0.3311986897395401</v>
       </c>
       <c r="C93">
-        <v>0.1481974789171008</v>
+        <v>-0.1117738066636363</v>
       </c>
       <c r="D93">
-        <v>0.02892153211372779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02126969470704166</v>
+      </c>
+      <c r="E93">
+        <v>-0.0202097868537682</v>
+      </c>
+      <c r="F93">
+        <v>-0.002668270992242879</v>
+      </c>
+      <c r="G93">
+        <v>-0.04616422805173769</v>
+      </c>
+      <c r="H93">
+        <v>0.014943437474331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1635731017021915</v>
+        <v>0.1110801573477647</v>
       </c>
       <c r="C94">
-        <v>-0.2740815388184251</v>
+        <v>0.2598212559461011</v>
       </c>
       <c r="D94">
-        <v>0.1021554786725575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1171679034143762</v>
+      </c>
+      <c r="E94">
+        <v>-0.2692985679721973</v>
+      </c>
+      <c r="F94">
+        <v>0.1766332596143198</v>
+      </c>
+      <c r="G94">
+        <v>0.1014920101487726</v>
+      </c>
+      <c r="H94">
+        <v>0.2899944541300262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.002198841745959673</v>
+        <v>0.01526494306828645</v>
       </c>
       <c r="C95">
-        <v>-0.07119716015874242</v>
+        <v>0.1000547862294343</v>
       </c>
       <c r="D95">
-        <v>-0.08900740037357861</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1298241281652108</v>
+      </c>
+      <c r="E95">
+        <v>0.03217758719239935</v>
+      </c>
+      <c r="F95">
+        <v>0.05866347094284544</v>
+      </c>
+      <c r="G95">
+        <v>0.006481990058023483</v>
+      </c>
+      <c r="H95">
+        <v>-0.02775251046088992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002035096892647045</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001281802266270399</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.004154698785639186</v>
+      </c>
+      <c r="E97">
+        <v>0.003830155977096153</v>
+      </c>
+      <c r="F97">
+        <v>0.000598200771311355</v>
+      </c>
+      <c r="G97">
+        <v>-0.004576443857021981</v>
+      </c>
+      <c r="H97">
+        <v>0.004270860870494689</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1204687042397218</v>
+        <v>0.1312409041578374</v>
       </c>
       <c r="C98">
-        <v>-0.1153251198581535</v>
+        <v>0.1570428888427448</v>
       </c>
       <c r="D98">
-        <v>-0.1360790826640246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05730792510517897</v>
+      </c>
+      <c r="E98">
+        <v>0.1744390122372138</v>
+      </c>
+      <c r="F98">
+        <v>0.2754360685190017</v>
+      </c>
+      <c r="G98">
+        <v>-0.05176033233692671</v>
+      </c>
+      <c r="H98">
+        <v>-0.2880780601868175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-7.449596082490755e-05</v>
+        <v>0.002505697271418015</v>
       </c>
       <c r="C101">
-        <v>-0.02929010583535728</v>
+        <v>0.05197599159687944</v>
       </c>
       <c r="D101">
-        <v>-0.062276471215578</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.005958401074869091</v>
+      </c>
+      <c r="E101">
+        <v>0.1163418158156752</v>
+      </c>
+      <c r="F101">
+        <v>-0.05862292871214696</v>
+      </c>
+      <c r="G101">
+        <v>0.03768542576513875</v>
+      </c>
+      <c r="H101">
+        <v>-0.05453257413922472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04365123275665982</v>
+        <v>0.01431508471411335</v>
       </c>
       <c r="C102">
-        <v>-0.1523291262928961</v>
+        <v>0.1088548574195255</v>
       </c>
       <c r="D102">
-        <v>-0.002843652742037646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01867304624076736</v>
+      </c>
+      <c r="E102">
+        <v>-0.08046434968626309</v>
+      </c>
+      <c r="F102">
+        <v>0.06905678458372159</v>
+      </c>
+      <c r="G102">
+        <v>0.04768962681825804</v>
+      </c>
+      <c r="H102">
+        <v>0.05478119506832578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
